--- a/data/trans_bre/P11_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P11_R2-Habitat-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.425932461216199</v>
+        <v>-1.516774287361873</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.611797480006308</v>
+        <v>2.531541564948517</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.023475966349541</v>
+        <v>3.88438908740305</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5256144666396021</v>
+        <v>0.6121827848789529</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.4214375695052866</v>
+        <v>-0.4148779500459942</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3627339327492201</v>
+        <v>0.3370228101646334</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.644772280745023</v>
+        <v>0.6642884066963949</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.03590584307196124</v>
+        <v>0.05033868062790653</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.214467438756169</v>
+        <v>2.105361301891408</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.576545113938407</v>
+        <v>8.635621939547683</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.08461265153982</v>
+        <v>9.978032071563293</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.17230394638962</v>
+        <v>6.365261077384905</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.194215753343384</v>
+        <v>1.146118831307383</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.968643028459478</v>
+        <v>1.889426214055779</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2.966908234309744</v>
+        <v>2.863767261462053</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.6982521778695384</v>
+        <v>0.7365426523900894</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.754959047811379</v>
+        <v>-1.773163422513187</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.571372823489478</v>
+        <v>2.537624590854898</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.385147929170475</v>
+        <v>2.22845635733487</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4.257843117244795</v>
+        <v>4.011422654955041</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3548747221839599</v>
+        <v>-0.3602486370553808</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4257183960718997</v>
+        <v>0.379735572781605</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4984515231369128</v>
+        <v>0.4885179872208487</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.5428936237973067</v>
+        <v>0.542308448024908</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.012406412076761</v>
+        <v>2.114349392085165</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.547196715280813</v>
+        <v>7.175764368027582</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.608919887720226</v>
+        <v>6.900853127332366</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8.516408850292802</v>
+        <v>8.383162134531309</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6561955957037927</v>
+        <v>0.7042832231692295</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.981411822866296</v>
+        <v>1.820330577604167</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.294272662159196</v>
+        <v>2.500500666522822</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.560537768385853</v>
+        <v>1.558256342693409</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.183777289818909</v>
+        <v>2.265230188849384</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.582870574451494</v>
+        <v>2.529341058228648</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.744104742336539</v>
+        <v>2.64184559360576</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.8026478340982397</v>
+        <v>-0.9531969303819818</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3796453504817934</v>
+        <v>0.4562924120908094</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4341759604941562</v>
+        <v>0.4311141686831352</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5196227081241799</v>
+        <v>0.4866285026843989</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1057261972542066</v>
+        <v>-0.1290843289710364</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.469341723138784</v>
+        <v>7.511660574943789</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.207882839381869</v>
+        <v>8.104925937718599</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.13319246349865</v>
+        <v>8.157483380653625</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.892421825276615</v>
+        <v>3.780585114040321</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.833098114413234</v>
+        <v>2.823353263792482</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.671974116663936</v>
+        <v>2.871002356475507</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.875852313069067</v>
+        <v>2.940320881814395</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.7851886885404371</v>
+        <v>0.7524713464306934</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>4.079087766521044</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5.696808202024515</v>
+        <v>5.696808202024514</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6209353065577454</v>
@@ -949,7 +949,7 @@
         <v>0.8478337495108415</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.6265807386174713</v>
+        <v>0.6265807386174711</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3340350644983983</v>
+        <v>0.3817305897757561</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.426057564491496</v>
+        <v>1.4282454539636</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.56511120497459</v>
+        <v>1.94353368631232</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.411371905349945</v>
+        <v>3.178019798593247</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.07204681479855407</v>
+        <v>0.05515491779477102</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2262944164754679</v>
+        <v>0.2065036430772989</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2492313342368218</v>
+        <v>0.3174268649513635</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.3289189093244668</v>
+        <v>0.3089523465447776</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.762245774174386</v>
+        <v>3.990118418505482</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.168567796638161</v>
+        <v>5.897906758825569</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.318197186095984</v>
+        <v>6.554507698108305</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8.286909010571438</v>
+        <v>8.145948065000574</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.380660509359475</v>
+        <v>1.464535724373567</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.468326185374443</v>
+        <v>1.404054072361025</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.607893089292194</v>
+        <v>1.702591060149729</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.073491602420918</v>
+        <v>1.066918518538444</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>4.995657416729138</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4.566722884994526</v>
+        <v>4.566722884994524</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.481855189087979</v>
@@ -1049,7 +1049,7 @@
         <v>1.206772857925057</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.5772015433158133</v>
+        <v>0.5772015433158131</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7141021993074498</v>
+        <v>0.6201274263857316</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.550288655844026</v>
+        <v>3.484431054651889</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.760654171356415</v>
+        <v>3.769859435588553</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.309283974294856</v>
+        <v>3.356501464402851</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1813108761904857</v>
+        <v>0.1508544885759781</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6252206973632465</v>
+        <v>0.6182011850056671</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8214826515529676</v>
+        <v>0.7913437556877769</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.3913055295538544</v>
+        <v>0.3717904169808117</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.740776775961836</v>
+        <v>2.753876543988977</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.024199394399075</v>
+        <v>6.00409403777512</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.312413719228468</v>
+        <v>6.310198945054195</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.824789499722932</v>
+        <v>5.943037505746161</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.8998914807043537</v>
+        <v>0.8893370175705622</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.350543785611121</v>
+        <v>1.333888688731959</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.765014954967376</v>
+        <v>1.691204949320123</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.8063082620511711</v>
+        <v>0.8309195373676386</v>
       </c>
     </row>
     <row r="19">
